--- a/Doc/Fuction Table.xlsx
+++ b/Doc/Fuction Table.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="60" windowWidth="19035" windowHeight="10995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OverView" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>No Prefix</t>
   </si>
@@ -33,45 +33,9 @@
     <t>Syntax</t>
   </si>
   <si>
-    <t>%EXP:[StringExpected]</t>
-  </si>
-  <si>
-    <t>%EXP:[StringExpected]:[StringOut]</t>
-  </si>
-  <si>
-    <t>%WAT:[StringWait]:[StringOut]</t>
-  </si>
-  <si>
-    <t>%DLY: [xxx]:[subfix]</t>
-  </si>
-  <si>
-    <t>%COM:[SUBCMD]:[VALUE]</t>
-  </si>
-  <si>
-    <t>%STR:[TSV]:[Value]</t>
-  </si>
-  <si>
-    <t>%CAT:[SSV]:[Value]</t>
-  </si>
-  <si>
-    <t>%DTA:[TSP(1)]:[TSV(1)]:[TSV(2)]</t>
-  </si>
-  <si>
-    <t>%PRN:[Value]:[Option]</t>
-  </si>
-  <si>
     <t>%RPT</t>
   </si>
   <si>
-    <t>%PIC:[Barcode]</t>
-  </si>
-  <si>
-    <t>%LBL[index], and %GTO[index]</t>
-  </si>
-  <si>
-    <t>%ECF, %DCF, %RCN</t>
-  </si>
-  <si>
     <t>Expected Receive</t>
   </si>
   <si>
@@ -140,14 +104,452 @@
     <t>STL Script Function Table</t>
   </si>
   <si>
-    <t>%SST:[SSV]:[Value]</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%EXP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:[StringExpected]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%EXP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:[StringExpected]:[StringOut]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%WAT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:[StringWait]:[StringOut]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%DLY</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: [xxx]:[subfix]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%COM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:[SUBCMD]:[VALUE]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%STR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:[TSV]:[Value]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%SST</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:[SSV]:[Value]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%CAT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:[SSV]:[Value]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%DTA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:[TSP(1)]:[TSV(1)]:[TSV(2)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%PRN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:[Value]:[Option]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%PIC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:[Barcode]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%ECF</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%DCF</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%RCN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%LBL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">[index], and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%GTO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[index]</t>
+    </r>
+  </si>
+  <si>
+    <t>SUBCMD</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>ON/OFF PORT</t>
+  </si>
+  <si>
+    <t>"ONP"</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>"OFF"</t>
+  </si>
+  <si>
+    <t>Baud rate</t>
+  </si>
+  <si>
+    <t>"BAD"</t>
+  </si>
+  <si>
+    <t>"9600"</t>
+  </si>
+  <si>
+    <t>"19200"</t>
+  </si>
+  <si>
+    <t>"38400"</t>
+  </si>
+  <si>
+    <t>"57600"</t>
+  </si>
+  <si>
+    <t>"115200"</t>
+  </si>
+  <si>
+    <t>Data bits</t>
+  </si>
+  <si>
+    <t>"DAT"</t>
+  </si>
+  <si>
+    <t>"5"</t>
+  </si>
+  <si>
+    <t>"6"</t>
+  </si>
+  <si>
+    <t>"7"</t>
+  </si>
+  <si>
+    <t>"8"</t>
+  </si>
+  <si>
+    <t>Stop bit</t>
+  </si>
+  <si>
+    <t>"STP"</t>
+  </si>
+  <si>
+    <t>"One"</t>
+  </si>
+  <si>
+    <t>"OnePointFive"</t>
+  </si>
+  <si>
+    <t>"Two"</t>
+  </si>
+  <si>
+    <t>Parity</t>
+  </si>
+  <si>
+    <t>"PAR"</t>
+  </si>
+  <si>
+    <t>"None"</t>
+  </si>
+  <si>
+    <t>"Even"</t>
+  </si>
+  <si>
+    <t>"Odd"</t>
+  </si>
+  <si>
+    <t>"Mark"</t>
+  </si>
+  <si>
+    <t>"Space"</t>
+  </si>
+  <si>
+    <t>COMPORT Sub Command</t>
+  </si>
+  <si>
+    <t>XMODEM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%XMODEM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:[Mode]:[TimeOut]:[Folder]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +584,36 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,18 +622,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FF538DD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5D9F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -226,23 +686,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D17"/>
+  <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,195 +1255,354 @@
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="I2" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="40"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="I18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>17</v>
+      <c r="C19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="24"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="24"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="25"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
+  <mergeCells count="11">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="J6:J10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="I18:I22"/>
+    <mergeCell ref="J18:J22"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
